--- a/config/testcases/Report_Play lesson.xlsx
+++ b/config/testcases/Report_Play lesson.xlsx
@@ -310,14 +310,14 @@
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -725,211 +725,211 @@
         <v>10</v>
       </c>
       <c r="L1" s="5"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5">
-        <f>COUNTIF(D:D,"PASS")</f>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="8" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("TO_TEXT((COUNTIF(D:D,""PASS"")))"),"0")</f>
         <v>0</v>
       </c>
-      <c r="J2" s="5">
-        <f>COUNTIF(D:D,"FAIL")</f>
+      <c r="J2" s="8" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("TO_TEXT((COUNTIF(D:D,""FAIL"")))"),"0")</f>
         <v>0</v>
       </c>
-      <c r="K2" s="5">
-        <f>COUNTIF(D:D,"SKIP")</f>
+      <c r="K2" s="8" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("TO_TEXT((COUNTIF(D:D,""SKIP"")))"),"0")</f>
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
       <c r="L3" s="5"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
       <c r="L4" s="5"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D6">
@@ -4406,8 +4406,8 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addValueIndexVariableFile")</f>
-        <v>addValueIndexVariableFile</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addIndexVariableFile")</f>
+        <v>addIndexVariableFile</v>
       </c>
       <c r="B81" s="28" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"add")</f>

--- a/config/testcases/Report_Play lesson.xlsx
+++ b/config/testcases/Report_Play lesson.xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="0xC+du/F1dPvsv98lfRXio9kjGr8rnFqw2cfjv3tazU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="YMmqg82hSi5L97N0TYH7+JUuoUlSP1Z7A11ACW9iVTg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>TCID</t>
   </si>
@@ -145,16 +145,40 @@
     <t>Chọn level</t>
   </si>
   <si>
-    <t>Chọn leson</t>
+    <t>Đợi lesson xuất hiện</t>
   </si>
   <si>
-    <t>press</t>
+    <t>waitForObject</t>
   </si>
   <si>
-    <t>Map(Clone)/Road/ButtonLesson2,0</t>
+    <t>Map(Clone)[0]/Road/ButtonLesson2</t>
   </si>
   <si>
     <t>TS2</t>
+  </si>
+  <si>
+    <t>Xác định lesson cần chọn</t>
+  </si>
+  <si>
+    <t>addTagForObject</t>
+  </si>
+  <si>
+    <t>Map(Clone)[0]/Road/ButtonLesson2,clickable</t>
+  </si>
+  <si>
+    <t>TS3</t>
+  </si>
+  <si>
+    <t>play lesson</t>
+  </si>
+  <si>
+    <t>pressWithTag</t>
+  </si>
+  <si>
+    <t>clickable,Untagged</t>
+  </si>
+  <si>
+    <t>TS4</t>
   </si>
   <si>
     <t>Đợi map biến mất</t>
@@ -164,18 +188,6 @@
   </si>
   <si>
     <t>CanvasHome</t>
-  </si>
-  <si>
-    <t>TS3</t>
-  </si>
-  <si>
-    <t>Đợi act xuất hiện</t>
-  </si>
-  <si>
-    <t>waitForObject</t>
-  </si>
-  <si>
-    <t>CanvasGamePlay,60</t>
   </si>
   <si>
     <t>Loop</t>
@@ -1005,10 +1017,8 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3.0" ySplit="1.0" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="D1" sqref="D1" pane="topRight"/>
-      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
-      <selection activeCell="D2" sqref="D2" pane="bottomRight"/>
+      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -1256,31 +1266,63 @@
       <c r="M8" s="25"/>
       <c r="N8" s="23"/>
     </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="16" t="str">
+        <f>TestCase!A6</f>
+        <v>TC5</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="23"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L8 M1:N1">
+  <conditionalFormatting sqref="L1:L9 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L8 M1:N1">
+  <conditionalFormatting sqref="L1:L9 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L8 M1:N1">
+  <conditionalFormatting sqref="L1:L9 M1:N1">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9">
+      <formula1>Keywords!$A$2:$A171</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H8">
       <formula1>Keywords!$A$2:$A166</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G8">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G9">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D8">
-      <formula1>Keywords!$A$2:$A8</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D9">
+      <formula1>Keywords!$A$2:$A9</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -1310,10 +1352,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -4589,9 +4631,18 @@
       <c r="Z84" s="31"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="31"/>
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
+      <c r="A85" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
+      </c>
+      <c r="B85" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
+      </c>
+      <c r="C85" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D85" s="31"/>
       <c r="E85" s="31"/>
       <c r="F85" s="31"/>
@@ -4617,9 +4668,18 @@
       <c r="Z85" s="31"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
+      <c r="A86" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
+      </c>
+      <c r="B86" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
+      </c>
+      <c r="C86" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D86" s="31"/>
       <c r="E86" s="31"/>
       <c r="F86" s="31"/>
@@ -4645,12 +4705,21 @@
       <c r="Z86" s="31"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="31"/>
+      <c r="A87" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
+      </c>
       <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
+      <c r="C87" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D87" s="31"/>
       <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
+      <c r="F87" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
+      </c>
       <c r="G87" s="31"/>
       <c r="H87" s="31"/>
       <c r="I87" s="31"/>
@@ -4673,12 +4742,21 @@
       <c r="Z87" s="31"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="31"/>
+      <c r="A88" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
       <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
+      <c r="C88" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D88" s="31"/>
       <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
+      <c r="F88" s="31" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
+      </c>
       <c r="G88" s="31"/>
       <c r="H88" s="31"/>
       <c r="I88" s="31"/>
@@ -30261,10 +30339,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="35" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/config/testcases/Report_Play lesson.xlsx
+++ b/config/testcases/Report_Play lesson.xlsx
@@ -133,15 +133,6 @@
     <t>$.level</t>
   </si>
   <si>
-    <t>Chọn level</t>
-  </si>
-  <si>
-    <t>click</t>
-  </si>
-  <si>
-    <t>LevelButton,Button,onClick()</t>
-  </si>
-  <si>
     <t>TS2</t>
   </si>
   <si>
@@ -152,6 +143,15 @@
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t>Chọn level</t>
+  </si>
+  <si>
+    <t>click</t>
+  </si>
+  <si>
+    <t>LevelButton,Button,onClick()</t>
   </si>
   <si>
     <t>TS3</t>
@@ -1175,23 +1175,24 @@
       <c r="N2" s="22"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="15" t="str">
-        <f>TestCase!A3</f>
-        <v>TC2</v>
+      <c r="A3" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>36</v>
+      </c>
       <c r="G3" s="19" t="s">
         <v>13</v>
       </c>
@@ -1204,11 +1205,12 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>14</v>
+      <c r="A4" s="15" t="str">
+        <f>TestCase!A3</f>
+        <v>TC2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>41</v>
@@ -1216,12 +1218,10 @@
       <c r="D4" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="F4" s="18"/>
       <c r="G4" s="19" t="s">
         <v>13</v>
       </c>
@@ -1365,10 +1365,10 @@
         <v>58</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E9" s="25" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F9" s="26" t="s">
         <v>59</v>
@@ -1389,7 +1389,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>60</v>
@@ -1553,7 +1553,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14">
       <formula1>Keywords!$A$2:$A171</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H4">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H3">
       <formula1>Keywords!$A$2:$A166</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A14">
@@ -1574,8 +1574,8 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H10">
       <formula1>Keywords!$A$2:$A169</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5">
-      <formula1>Keywords!$A$2:$A168</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H5">
+      <formula1>Keywords!$A$2:$A167</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>

--- a/config/testcases/Report_Play lesson.xlsx
+++ b/config/testcases/Report_Play lesson.xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="NwIVid+fyWO5/JfGNUS2yp/3otWlnmbV9Gfn7rrDFzU="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="d9VVtCwjBILYc5d8jppZek82Zfr31xEjrkyuYvxNTFA="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
   <si>
     <t>TCID</t>
   </si>
@@ -223,6 +223,18 @@
     <t>Map(Clone)[$.index]/Road/Button$.path,60</t>
   </si>
   <si>
+    <t>Kiểm tra màn hình map</t>
+  </si>
+  <si>
+    <t>skipLesson</t>
+  </si>
+  <si>
+    <t>CanvasGamePlay/ButtonClose</t>
+  </si>
+  <si>
+    <t>TS5</t>
+  </si>
+  <si>
     <t>Xác định lesson cần play</t>
   </si>
   <si>
@@ -232,7 +244,7 @@
     <t>Map(Clone)[$.index]/Road/Button$.path,clickable</t>
   </si>
   <si>
-    <t>TS5</t>
+    <t>TS6</t>
   </si>
   <si>
     <t>play lesson</t>
@@ -244,7 +256,7 @@
     <t>clickable,Untagged</t>
   </si>
   <si>
-    <t>TS6</t>
+    <t>TS7</t>
   </si>
   <si>
     <t>Đợi map biến mất</t>
@@ -1444,9 +1456,8 @@
       <c r="N11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="15" t="str">
-        <f>TestCase!A6</f>
-        <v>TC5</v>
+      <c r="A12" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="B12" s="15" t="s">
         <v>48</v>
@@ -1530,18 +1541,47 @@
       <c r="M14" s="24"/>
       <c r="N14" s="22"/>
     </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="15" t="str">
+        <f>TestCase!A6</f>
+        <v>TC5</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="20"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="22"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L14 M1:N1">
+  <conditionalFormatting sqref="L1:L15 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L14 M1:N1">
+  <conditionalFormatting sqref="L1:L15 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L14 M1:N1">
+  <conditionalFormatting sqref="L1:L15 M1:N1">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
@@ -1550,32 +1590,35 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H6">
       <formula1>Keywords!$A$2:$A168</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14">
-      <formula1>Keywords!$A$2:$A171</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H3">
       <formula1>Keywords!$A$2:$A166</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A14">
-      <formula1>TestCase!$A$1:$A14</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A15">
+      <formula1>TestCase!$A$1:$A15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G15">
       <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7:H8">
       <formula1>Keywords!$A$2:$A168</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H11:H13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H11:H12">
       <formula1>Keywords!$A$2:$A170</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D14">
-      <formula1>Keywords!$A$2:$A14</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D15">
+      <formula1>Keywords!$A$2:$A15</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H10">
       <formula1>Keywords!$A$2:$A169</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H5">
       <formula1>Keywords!$A$2:$A167</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H13:H14">
+      <formula1>Keywords!$A$2:$A171</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H15">
+      <formula1>Keywords!$A$2:$A171</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -1605,10 +1648,10 @@
         <v>5</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -5481,8 +5524,8 @@
         <v>deFindAnswerDienThe</v>
       </c>
       <c r="B101" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect")</f>
-        <v>locator(ảnh),component,property[,strReplace,strAdd],locator1(text),expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element(ảnh),component,property[,strReplace,strAdd],element1(text),expect")</f>
+        <v>element(ảnh),component,property[,strReplace,strAdd],element1(text),expect</v>
       </c>
       <c r="C101" s="33" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5595,8 +5638,8 @@
         <v>swipeMap</v>
       </c>
       <c r="B104" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"locator,component,property,key,expect")</f>
-        <v>locator,component,property,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,key,expect")</f>
+        <v>element,component,property,key,expect</v>
       </c>
       <c r="C104" s="33" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5630,12 +5673,24 @@
       <c r="Z104" s="33"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="33"/>
-      <c r="B105" s="33"/>
-      <c r="C105" s="33"/>
+      <c r="A105" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairImage")</f>
+        <v>comPairImage</v>
+      </c>
+      <c r="B105" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
+      </c>
+      <c r="C105" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D105" s="33"/>
       <c r="E105" s="33"/>
-      <c r="F105" s="33"/>
+      <c r="F105" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
+        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
+      </c>
       <c r="G105" s="33"/>
       <c r="H105" s="33"/>
       <c r="I105" s="33"/>
@@ -5658,12 +5713,24 @@
       <c r="Z105" s="33"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="33"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
+      <c r="A106" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"skipLesson")</f>
+        <v>skipLesson</v>
+      </c>
+      <c r="B106" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
+      </c>
+      <c r="C106" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D106" s="33"/>
       <c r="E106" s="33"/>
-      <c r="F106" s="33"/>
+      <c r="F106" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sử dụng với những nút có thể onclick()")</f>
+        <v>sử dụng với những nút có thể onclick()</v>
+      </c>
       <c r="G106" s="33"/>
       <c r="H106" s="33"/>
       <c r="I106" s="33"/>
@@ -30742,10 +30809,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="37" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/config/testcases/Report_Play lesson.xlsx
+++ b/config/testcases/Report_Play lesson.xlsx
@@ -13,14 +13,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="d9VVtCwjBILYc5d8jppZek82Zfr31xEjrkyuYvxNTFA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="1W68fjQY3xKYyWtYdMpKo16pz8XUKOksEnPnJdCKdKI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="86">
   <si>
     <t>TCID</t>
   </si>
@@ -121,6 +121,24 @@
     <t>TS1</t>
   </si>
   <si>
+    <t>Kiểm tra màn hình map</t>
+  </si>
+  <si>
+    <t>skipLesson</t>
+  </si>
+  <si>
+    <t>CanvasGamePlay/ButtonClose</t>
+  </si>
+  <si>
+    <t>TS2</t>
+  </si>
+  <si>
+    <t>TS3</t>
+  </si>
+  <si>
+    <t>TS4</t>
+  </si>
+  <si>
     <t>Xác định có cần chọn level</t>
   </si>
   <si>
@@ -133,7 +151,7 @@
     <t>$.level</t>
   </si>
   <si>
-    <t>TS2</t>
+    <t>TS5</t>
   </si>
   <si>
     <t>Xác định level</t>
@@ -154,9 +172,6 @@
     <t>LevelButton,Button,onClick()</t>
   </si>
   <si>
-    <t>TS3</t>
-  </si>
-  <si>
     <t>Click level</t>
   </si>
   <si>
@@ -164,9 +179,6 @@
   </si>
   <si>
     <t>ButtonLevel ($.index)</t>
-  </si>
-  <si>
-    <t>TS4</t>
   </si>
   <si>
     <t>Đợi map đổi level</t>
@@ -221,18 +233,6 @@
   </si>
   <si>
     <t>Map(Clone)[$.index]/Road/Button$.path,60</t>
-  </si>
-  <si>
-    <t>Kiểm tra màn hình map</t>
-  </si>
-  <si>
-    <t>skipLesson</t>
-  </si>
-  <si>
-    <t>CanvasGamePlay/ButtonClose</t>
-  </si>
-  <si>
-    <t>TS5</t>
   </si>
   <si>
     <t>Xác định lesson cần play</t>
@@ -1156,9 +1156,8 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="15" t="str">
-        <f>TestCase!A2</f>
-        <v>TC1</v>
+      <c r="A2" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="15" t="s">
         <v>32</v>
@@ -1172,9 +1171,7 @@
       <c r="E2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>36</v>
-      </c>
+      <c r="F2" s="18"/>
       <c r="G2" s="19" t="s">
         <v>13</v>
       </c>
@@ -1191,20 +1188,18 @@
         <v>11</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>36</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="F3" s="18"/>
       <c r="G3" s="19" t="s">
         <v>13</v>
       </c>
@@ -1217,21 +1212,20 @@
       <c r="N3" s="22"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="15" t="str">
-        <f>TestCase!A3</f>
-        <v>TC2</v>
+      <c r="A4" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="19" t="s">
@@ -1246,22 +1240,25 @@
       <c r="N4" s="22"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>14</v>
+      <c r="A5" s="15" t="str">
+        <f>TestCase!A2</f>
+        <v>TC1</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="18"/>
+        <v>41</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>42</v>
+      </c>
       <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
@@ -1274,24 +1271,23 @@
       <c r="N5" s="22"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="15" t="str">
-        <f>TestCase!A3</f>
-        <v>TC2</v>
+      <c r="A6" s="15" t="s">
+        <v>11</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G6" s="19" t="s">
         <v>13</v>
@@ -1306,24 +1302,22 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="15" t="str">
-        <f>TestCase!A4</f>
-        <v>TC3</v>
+        <f>TestCase!A3</f>
+        <v>TC2</v>
       </c>
       <c r="B7" s="15" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>54</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="F7" s="18"/>
       <c r="G7" s="19" t="s">
         <v>13</v>
       </c>
@@ -1336,25 +1330,22 @@
       <c r="N7" s="22"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="15" t="str">
-        <f>TestCase!A5</f>
-        <v>TC4</v>
+      <c r="A8" s="15" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>54</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="F8" s="18"/>
       <c r="G8" s="19" t="s">
         <v>13</v>
       </c>
@@ -1367,23 +1358,24 @@
       <c r="N8" s="22"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>20</v>
+      <c r="A9" s="15" t="str">
+        <f>TestCase!A3</f>
+        <v>TC2</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>42</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>13</v>
@@ -1397,23 +1389,24 @@
       <c r="N9" s="22"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>20</v>
+      <c r="A10" s="15" t="str">
+        <f>TestCase!A4</f>
+        <v>TC3</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>63</v>
+        <v>40</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>13</v>
@@ -1428,22 +1421,24 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="str">
-        <f>TestCase!A6</f>
-        <v>TC5</v>
+        <f>TestCase!A5</f>
+        <v>TC4</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="18"/>
+        <v>61</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="G11" s="19" t="s">
         <v>13</v>
       </c>
@@ -1460,18 +1455,20 @@
         <v>20</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="18"/>
+        <v>45</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="26" t="s">
+        <v>63</v>
+      </c>
       <c r="G12" s="19" t="s">
         <v>13</v>
       </c>
@@ -1484,23 +1481,24 @@
       <c r="N12" s="22"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="15" t="str">
-        <f>TestCase!A6</f>
-        <v>TC5</v>
+      <c r="A13" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="18"/>
+        <v>65</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>67</v>
+      </c>
       <c r="G13" s="19" t="s">
         <v>13</v>
       </c>
@@ -1518,16 +1516,16 @@
         <v>TC5</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="19" t="s">
@@ -1547,16 +1545,16 @@
         <v>TC5</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="19" t="s">
@@ -1570,54 +1568,112 @@
       <c r="M15" s="24"/>
       <c r="N15" s="22"/>
     </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="15" t="str">
+        <f>TestCase!A6</f>
+        <v>TC5</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="22"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="15" t="str">
+        <f>TestCase!A6</f>
+        <v>TC5</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="22"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="L1:L15 M1:N1">
+  <conditionalFormatting sqref="L1:L17 M1:N1">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L15 M1:N1">
+  <conditionalFormatting sqref="L1:L17 M1:N1">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"FAIL"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L1:L15 M1:N1">
+  <conditionalFormatting sqref="L1:L17 M1:N1">
     <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
       <formula>"SKIP"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H12:H13">
+      <formula1>Keywords!$A$2:$A169</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A17">
+      <formula1>TestCase!$A$1:$A17</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G17">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H5:H6">
+      <formula1>Keywords!$A$2:$A166</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9">
       <formula1>Keywords!$A$2:$A168</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H3">
-      <formula1>Keywords!$A$2:$A166</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A15">
-      <formula1>TestCase!$A$1:$A15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G2:G15">
-      <formula1>"Y,N"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D17">
+      <formula1>Keywords!$A$2:$A17</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H7:H8">
+      <formula1>Keywords!$A$2:$A167</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H10:H11">
       <formula1>Keywords!$A$2:$A168</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H11:H12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H14:H16">
       <formula1>Keywords!$A$2:$A170</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D2:D15">
-      <formula1>Keywords!$A$2:$A15</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H9:H10">
-      <formula1>Keywords!$A$2:$A169</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:H5">
-      <formula1>Keywords!$A$2:$A167</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H13:H14">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H2:H4">
       <formula1>Keywords!$A$2:$A171</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H15">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H17">
       <formula1>Keywords!$A$2:$A171</formula1>
     </dataValidation>
   </dataValidations>
@@ -5104,12 +5160,12 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
-        <v>changeModeTC</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addVariableFile")</f>
+        <v>addVariableFile</v>
       </c>
       <c r="B90" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
-        <v>keyWord,locator,component,tcRow,expected</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key,add")</f>
+        <v>key,add</v>
       </c>
       <c r="C90" s="33" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5145,8 +5201,8 @@
         <v>changeModeTC</v>
       </c>
       <c r="B91" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
-        <v>variableKey,runYes,runNo,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"keyWord,locator,component,tcRow,expected")</f>
+        <v>keyWord,locator,component,tcRow,expected</v>
       </c>
       <c r="C91" s="33" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5154,10 +5210,7 @@
       </c>
       <c r="D91" s="33"/>
       <c r="E91" s="33"/>
-      <c r="F91" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
-        <v>runYes: row tc modeyes</v>
-      </c>
+      <c r="F91" s="33"/>
       <c r="G91" s="33"/>
       <c r="H91" s="33"/>
       <c r="I91" s="33"/>
@@ -5181,12 +5234,12 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
-        <v>changeModeTCSetTrue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTC")</f>
+        <v>changeModeTC</v>
       </c>
       <c r="B92" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
-        <v>(String actual,String tcRow,String expect)</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"variableKey,runYes,runNo,expect")</f>
+        <v>variableKey,runYes,runNo,expect</v>
       </c>
       <c r="C92" s="33" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5195,8 +5248,8 @@
       <c r="D92" s="33"/>
       <c r="E92" s="33"/>
       <c r="F92" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
-        <v>actual check equal expect if true tcRow set mode run YES</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"runYes: row tc modeyes")</f>
+        <v>runYes: row tc modeyes</v>
       </c>
       <c r="G92" s="33"/>
       <c r="H92" s="33"/>
@@ -5221,8 +5274,8 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
-        <v>changeModeTCSetFail</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetTrue")</f>
+        <v>changeModeTCSetTrue</v>
       </c>
       <c r="B93" s="33" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
@@ -5235,8 +5288,8 @@
       <c r="D93" s="33"/>
       <c r="E93" s="33"/>
       <c r="F93" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
-        <v>actual check equal expect if true tcRow set mode run NO</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run YES")</f>
+        <v>actual check equal expect if true tcRow set mode run YES</v>
       </c>
       <c r="G93" s="33"/>
       <c r="H93" s="33"/>
@@ -5261,12 +5314,12 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
-        <v>isElementDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"changeModeTCSetFail")</f>
+        <v>changeModeTCSetFail</v>
       </c>
       <c r="B94" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
-        <v>element[,strSplit]</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"(String actual,String tcRow,String expect)")</f>
+        <v>(String actual,String tcRow,String expect)</v>
       </c>
       <c r="C94" s="33" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5274,7 +5327,10 @@
       </c>
       <c r="D94" s="33"/>
       <c r="E94" s="33"/>
-      <c r="F94" s="33"/>
+      <c r="F94" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"actual check equal expect if true tcRow set mode run NO")</f>
+        <v>actual check equal expect if true tcRow set mode run NO</v>
+      </c>
       <c r="G94" s="33"/>
       <c r="H94" s="33"/>
       <c r="I94" s="33"/>
@@ -5298,12 +5354,12 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
-        <v>addTagForObject</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementDisplay")</f>
+        <v>isElementDisplay</v>
       </c>
       <c r="B95" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
-        <v>element,newTag</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element[,strSplit]")</f>
+        <v>element[,strSplit]</v>
       </c>
       <c r="C95" s="33" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5335,20 +5391,20 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
-        <v>pause</v>
-      </c>
-      <c r="B96" s="33"/>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"addTagForObject")</f>
+        <v>addTagForObject</v>
+      </c>
+      <c r="B96" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,newTag")</f>
+        <v>element,newTag</v>
+      </c>
       <c r="C96" s="33" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
         <v>void</v>
       </c>
       <c r="D96" s="33"/>
       <c r="E96" s="33"/>
-      <c r="F96" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
-        <v>pause program</v>
-      </c>
+      <c r="F96" s="33"/>
       <c r="G96" s="33"/>
       <c r="H96" s="33"/>
       <c r="I96" s="33"/>
@@ -5372,8 +5428,8 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
-        <v>resume</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause")</f>
+        <v>pause</v>
       </c>
       <c r="B97" s="33"/>
       <c r="C97" s="33" t="str">
@@ -5383,8 +5439,8 @@
       <c r="D97" s="33"/>
       <c r="E97" s="33"/>
       <c r="F97" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
-        <v>unpause program</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pause program")</f>
+        <v>pause program</v>
       </c>
       <c r="G97" s="33"/>
       <c r="H97" s="33"/>
@@ -5409,20 +5465,20 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
-        <v>getAudiosSource</v>
-      </c>
-      <c r="B98" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
-      </c>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"resume")</f>
+        <v>resume</v>
+      </c>
+      <c r="B98" s="33"/>
       <c r="C98" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D98" s="33"/>
       <c r="E98" s="33"/>
-      <c r="F98" s="33"/>
+      <c r="F98" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"unpause program")</f>
+        <v>unpause program</v>
+      </c>
       <c r="G98" s="33"/>
       <c r="H98" s="33"/>
       <c r="I98" s="33"/>
@@ -5446,12 +5502,12 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
-        <v>getAudiosSourceByTime</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSource")</f>
+        <v>getAudiosSource</v>
       </c>
       <c r="B99" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
-        <v>element,second,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
       </c>
       <c r="C99" s="33" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -5483,12 +5539,12 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
-        <v>getAudiosSourceByLocator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByTime")</f>
+        <v>getAudiosSourceByTime</v>
       </c>
       <c r="B100" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
-        <v>element1,element2,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,second,expect")</f>
+        <v>element,second,expect</v>
       </c>
       <c r="C100" s="33" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
@@ -5520,23 +5576,20 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
-        <v>deFindAnswerDienThe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getAudiosSourceByLocator")</f>
+        <v>getAudiosSourceByLocator</v>
       </c>
       <c r="B101" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element(ảnh),component,property[,strReplace,strAdd],element1(text),expect")</f>
-        <v>element(ảnh),component,property[,strReplace,strAdd],element1(text),expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element1,element2,expect")</f>
+        <v>element1,element2,expect</v>
       </c>
       <c r="C101" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D101" s="33"/>
       <c r="E101" s="33"/>
-      <c r="F101" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
-        <v>return value locator1 in $.path in variable file</v>
-      </c>
+      <c r="F101" s="33"/>
       <c r="G101" s="33"/>
       <c r="H101" s="33"/>
       <c r="I101" s="33"/>
@@ -5560,12 +5613,12 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
-        <v>getElementDisplayInScene</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"deFindAnswerDienThe")</f>
+        <v>deFindAnswerDienThe</v>
       </c>
       <c r="B102" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
-        <v>strAdd,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element(ảnh),component,property[,strReplace,strAdd],element1(text),expect")</f>
+        <v>element(ảnh),component,property[,strReplace,strAdd],element1(text),expect</v>
       </c>
       <c r="C102" s="33" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
@@ -5573,7 +5626,10 @@
       </c>
       <c r="D102" s="33"/>
       <c r="E102" s="33"/>
-      <c r="F102" s="33"/>
+      <c r="F102" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"return value locator1 in $.path in variable file")</f>
+        <v>return value locator1 in $.path in variable file</v>
+      </c>
       <c r="G102" s="33"/>
       <c r="H102" s="33"/>
       <c r="I102" s="33"/>
@@ -5597,16 +5653,16 @@
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
-        <v>isElementsDisplay</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"getElementDisplayInScene")</f>
+        <v>getElementDisplayInScene</v>
       </c>
       <c r="B103" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
-        <v>strSplit,locator</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strAdd,expect")</f>
+        <v>strAdd,expect</v>
       </c>
       <c r="C103" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D103" s="33"/>
       <c r="E103" s="33"/>
@@ -5634,23 +5690,20 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
-        <v>swipeMap</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"isElementsDisplay")</f>
+        <v>isElementsDisplay</v>
       </c>
       <c r="B104" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,key,expect")</f>
-        <v>element,component,property,key,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"strSplit,locator")</f>
+        <v>strSplit,locator</v>
       </c>
       <c r="C104" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D104" s="33"/>
       <c r="E104" s="33"/>
-      <c r="F104" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
-        <v>key file data to get list leson</v>
-      </c>
+      <c r="F104" s="33"/>
       <c r="G104" s="33"/>
       <c r="H104" s="33"/>
       <c r="I104" s="33"/>
@@ -5674,22 +5727,22 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairImage")</f>
-        <v>comPairImage</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"swipeMap")</f>
+        <v>swipeMap</v>
       </c>
       <c r="B105" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
-        <v>element,expect</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,component,property,key,expect")</f>
+        <v>element,component,property,key,expect</v>
       </c>
       <c r="C105" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
-        <v>String</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
       </c>
       <c r="D105" s="33"/>
       <c r="E105" s="33"/>
       <c r="F105" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
-        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"key file data to get list leson")</f>
+        <v>key file data to get list leson</v>
       </c>
       <c r="G105" s="33"/>
       <c r="H105" s="33"/>
@@ -5714,22 +5767,22 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"skipLesson")</f>
-        <v>skipLesson</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairImage")</f>
+        <v>comPairImage</v>
       </c>
       <c r="B106" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
-        <v>element</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
       </c>
       <c r="C106" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
-        <v>void</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
       </c>
       <c r="D106" s="33"/>
       <c r="E106" s="33"/>
       <c r="F106" s="33" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sử dụng với những nút có thể onclick()")</f>
-        <v>sử dụng với những nút có thể onclick()</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
+        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
       </c>
       <c r="G106" s="33"/>
       <c r="H106" s="33"/>
@@ -5753,12 +5806,24 @@
       <c r="Z106" s="33"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="A107" s="33"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
+      <c r="A107" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"comPairWordHasImage")</f>
+        <v>comPairWordHasImage</v>
+      </c>
+      <c r="B107" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element,expect")</f>
+        <v>element,expect</v>
+      </c>
+      <c r="C107" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"String")</f>
+        <v>String</v>
+      </c>
       <c r="D107" s="33"/>
       <c r="E107" s="33"/>
-      <c r="F107" s="33"/>
+      <c r="F107" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"trả về true or false dùng trong những TH check ảnh có hoặc k tùy data")</f>
+        <v>trả về true or false dùng trong những TH check ảnh có hoặc k tùy data</v>
+      </c>
       <c r="G107" s="33"/>
       <c r="H107" s="33"/>
       <c r="I107" s="33"/>
@@ -5781,12 +5846,24 @@
       <c r="Z107" s="33"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="33"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
+      <c r="A108" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"skipLesson")</f>
+        <v>skipLesson</v>
+      </c>
+      <c r="B108" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"element")</f>
+        <v>element</v>
+      </c>
+      <c r="C108" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"void")</f>
+        <v>void</v>
+      </c>
       <c r="D108" s="33"/>
       <c r="E108" s="33"/>
-      <c r="F108" s="33"/>
+      <c r="F108" s="33" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sử dụng với những nút có thể onclick()")</f>
+        <v>sử dụng với những nút có thể onclick()</v>
+      </c>
       <c r="G108" s="33"/>
       <c r="H108" s="33"/>
       <c r="I108" s="33"/>
